--- a/SHCourseGroupCodeAdmin/Template/學期成績檢核課程代碼樣板.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/學期成績檢核課程代碼樣板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evang\Desktop\u_txt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ischool Work\Visual Studio Project\ScoreReportDAL_1025\SHCourseGroupCodeAdmin\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926854D2-B2CA-4562-9AB0-9BC4DC818DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="28680" yWindow="-3435" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="檢查學期成績課程代碼" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>學號</t>
   </si>
@@ -71,12 +72,16 @@
   </si>
   <si>
     <t>說明</t>
+  </si>
+  <si>
+    <t>成績年級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -402,27 +407,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,59 +447,63 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,30 +523,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -548,7 +560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -556,9 +568,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/SHCourseGroupCodeAdmin/Template/學期成績檢核課程代碼樣板.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/學期成績檢核課程代碼樣板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ischool Work\Visual Studio Project\ScoreReportDAL_1025\SHCourseGroupCodeAdmin\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\ScoreReportDAL\SHCourseGroupCodeAdmin\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926854D2-B2CA-4562-9AB0-9BC4DC818DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB079DBC-3CF2-404F-B213-AF845AC775EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3435" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>學號</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>成績年級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分項類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,26 +412,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,15 +467,18 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -483,27 +491,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,18 +547,21 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -561,16 +573,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,12 +611,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/SHCourseGroupCodeAdmin/Template/學期成績檢核課程代碼樣板.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/學期成績檢核課程代碼樣板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\ScoreReportDAL\SHCourseGroupCodeAdmin\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHCourseGroupCodeAdmin\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB079DBC-3CF2-404F-B213-AF845AC775EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F31B5-3B21-45E7-9531-B47567C23BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3435" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="檢查學期成績課程代碼" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>授課學期學分節數</t>
   </si>
   <si>
-    <t>群科班代碼</t>
-  </si>
-  <si>
     <t>說明</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   <si>
     <t>分項類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程規劃表名稱</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
     <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
     <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -559,10 +559,10 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -577,14 +577,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,13 +611,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
